--- a/biology/Botanique/Alphonse_Rion/Alphonse_Rion.xlsx
+++ b/biology/Botanique/Alphonse_Rion/Alphonse_Rion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chanoine Jos.-Alphonse Rion, né le 12 juillet 1809 à Vex et mort le 8 novembre 1856 à Sion, est un prêtre et botaniste suisse.
 </t>
@@ -511,10 +523,12 @@
           <t>Héritage scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mort prématurément à l'âge de 47 ans, le chanoine Rion laissait de nombreuses notes manuscrites sur la flore du Valais[1] ; ses observations furent publiées par ses élèves Raphaël Ritz et Ferdinand Otto Wolf (es) dans un petit ouvrage intitulé Guide du botaniste en Valais (Club alpin suisse, Sion, 1872)[2].
-Son herbier a été acquis par le musée de la nature de Sion en 1860, d'autres spécimens récoltés par lui ont complété la collection en 2003[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mort prématurément à l'âge de 47 ans, le chanoine Rion laissait de nombreuses notes manuscrites sur la flore du Valais ; ses observations furent publiées par ses élèves Raphaël Ritz et Ferdinand Otto Wolf (es) dans un petit ouvrage intitulé Guide du botaniste en Valais (Club alpin suisse, Sion, 1872).
+Son herbier a été acquis par le musée de la nature de Sion en 1860, d'autres spécimens récoltés par lui ont complété la collection en 2003.
 </t>
         </is>
       </c>
